--- a/database/industries/kashi/kehafez/product/quarterly.xlsx
+++ b/database/industries/kashi/kehafez/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kehafez\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kehafez\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D8F4F6-D013-4603-9019-BB022F8C3958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA57569B-3E0F-4E0E-9B88-C13E8F263AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -599,12 +599,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -619,7 +619,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -636,7 +636,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -653,7 +653,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -668,7 +668,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -685,7 +685,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -702,7 +702,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -717,7 +717,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -754,7 +754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -769,7 +769,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -847,7 +847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -886,7 +886,7 @@
         <v>274950</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -925,7 +925,7 @@
         <v>1280969</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -964,7 +964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>532540</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>28</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>2088459</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1248,7 +1248,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1263,7 +1263,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1278,7 +1278,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>29</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1330,7 +1330,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>15</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>18</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>19</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>194144</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>20</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>1086476</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>21</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>30</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>30</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>22</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>23</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>24</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>25</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>26</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>27</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>548170</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>28</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>1828790</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1885,7 +1885,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1900,7 +1900,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1915,7 +1915,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>32</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1967,7 +1967,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>15</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>18</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>19</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>149842</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>20</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>2605320</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>21</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>30</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>22</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>23</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>24</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>25</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>26</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>27</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>432916</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
         <v>28</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>3188078</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2487,7 +2487,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2502,7 +2502,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2517,7 +2517,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>34</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2569,7 +2569,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>15</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>18</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>19</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>771809</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>20</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>2397954</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>21</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>30</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>22</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>23</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>24</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>25</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>26</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>27</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>789748</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3052,7 +3052,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3067,7 +3067,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3082,7 +3082,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>38</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3134,7 +3134,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>15</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>18</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>19</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>-152150</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>20</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>-1134161</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>21</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>30</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>22</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>23</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>25</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>26</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>27</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>-371297</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>28</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>-1657608</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3615,7 +3615,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3630,7 +3630,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3645,7 +3645,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B96" s="7" t="s">
         <v>39</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3697,7 +3697,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>15</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>18</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>19</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>-2308</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>20</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>1471159</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>21</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>30</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>22</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>23</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>25</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>26</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>27</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>61619</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="12" t="s">
         <v>28</v>
       </c>
